--- a/StructureDefinition-profile-CoverageEligibilityRequest.xlsx
+++ b/StructureDefinition-profile-CoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6614479-06:00</t>
+    <t>2026-02-09T22:05:43.0572523-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,33 +422,60 @@
     <t>CoverageEligibilityRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.extension:event</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.event|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CoverageEligibilityRequest.event from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information code for an event with a corresponding date or period.</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityRequest.event` is will have a context of CoverageEligibilityRequest based on following the parent source element upwards and mapping to `CoverageEligibilityRequest`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +483,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -753,6 +783,9 @@
   </si>
   <si>
     <t>CoverageEligibilityRequest.supportingInfo.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1402,7 +1435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1421,7 +1454,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2377,7 +2410,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2396,17 +2429,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2443,16 +2474,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2479,7 +2508,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2487,11 +2516,13 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2504,26 +2535,24 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2571,7 +2600,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2580,7 +2609,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2595,19 +2624,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2620,23 +2649,25 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2685,7 +2716,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2697,27 +2728,27 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2725,34 +2756,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2777,13 +2806,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2801,13 +2830,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -2816,10 +2845,10 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2830,10 +2859,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2841,7 +2870,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>87</v>
@@ -2850,23 +2879,25 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2891,14 +2922,14 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2915,10 +2946,10 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>87</v>
@@ -2930,10 +2961,10 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2944,10 +2975,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2955,10 +2986,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2967,10 +2998,10 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>172</v>
@@ -3005,13 +3036,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3029,13 +3060,13 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -3044,10 +3075,10 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3058,10 +3089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3072,7 +3103,7 @@
         <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3084,19 +3115,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3121,13 +3150,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3145,13 +3174,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3160,10 +3189,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3174,10 +3203,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3185,7 +3214,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>87</v>
@@ -3197,20 +3226,22 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3259,10 +3290,10 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>87</v>
@@ -3274,10 +3305,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3288,10 +3319,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3299,7 +3330,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
@@ -3311,20 +3342,20 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3373,10 +3404,10 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>87</v>
@@ -3388,10 +3419,10 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3402,10 +3433,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3413,7 +3444,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -3425,20 +3456,20 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3487,10 +3518,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>87</v>
@@ -3502,10 +3533,10 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3516,10 +3547,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3542,19 +3573,17 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3603,7 +3632,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3618,10 +3647,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3632,10 +3661,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3643,7 +3672,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>87</v>
@@ -3655,20 +3684,22 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3717,10 +3748,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>87</v>
@@ -3732,10 +3763,10 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3746,10 +3777,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3757,7 +3788,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -3769,20 +3800,20 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3831,10 +3862,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>87</v>
@@ -3846,10 +3877,10 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3860,10 +3891,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3874,7 +3905,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3886,19 +3917,17 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3947,13 +3976,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -3965,7 +3994,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3976,10 +4005,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3990,7 +4019,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4002,16 +4031,20 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4059,19 +4092,19 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4083,26 +4116,26 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4114,17 +4147,15 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4173,19 +4204,19 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4197,19 +4228,19 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4222,26 +4253,24 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4289,7 +4318,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4313,48 +4342,50 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4403,19 +4434,19 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4427,15 +4458,15 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4458,19 +4489,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4519,7 +4548,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>87</v>
@@ -4548,10 +4577,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4559,7 +4588,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4574,17 +4603,19 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4633,10 +4664,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4662,10 +4693,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4676,7 +4707,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4688,19 +4719,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4749,13 +4778,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4778,10 +4807,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4792,7 +4821,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4804,16 +4833,20 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4861,19 +4894,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4885,26 +4918,26 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4916,17 +4949,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4975,19 +5006,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -4999,19 +5030,19 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5024,26 +5055,24 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5091,7 +5120,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5115,50 +5144,50 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5207,19 +5236,19 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5231,15 +5260,15 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5247,7 +5276,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5262,17 +5291,19 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5321,10 +5352,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5350,10 +5381,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5361,7 +5392,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
@@ -5376,17 +5407,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5435,10 +5466,10 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>87</v>
@@ -5464,10 +5495,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5478,7 +5509,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5490,17 +5521,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5549,13 +5580,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5578,10 +5609,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5592,7 +5623,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5604,16 +5635,18 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5661,19 +5694,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5685,26 +5718,26 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5716,17 +5749,15 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5775,19 +5806,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -5799,19 +5830,19 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5824,26 +5855,24 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5891,7 +5920,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5915,19 +5944,19 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5940,23 +5969,25 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6005,7 +6036,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6017,7 +6048,7 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6029,15 +6060,15 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6048,7 +6079,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6060,19 +6091,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6097,37 +6126,37 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6150,10 +6179,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6176,19 +6205,19 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6213,13 +6242,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6237,7 +6266,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6266,10 +6295,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6280,7 +6309,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6292,19 +6321,19 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6329,13 +6358,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6353,13 +6382,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6382,10 +6411,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6396,7 +6425,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6408,17 +6437,19 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6443,13 +6474,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6467,13 +6498,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6482,10 +6513,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6496,10 +6527,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6522,17 +6553,17 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6581,7 +6612,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6596,10 +6627,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6610,10 +6641,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6636,17 +6667,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6695,7 +6726,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6724,10 +6755,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6750,17 +6781,17 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6809,7 +6840,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6838,10 +6869,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6852,7 +6883,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -6864,17 +6895,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6923,13 +6954,13 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
@@ -6944,7 +6975,7 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -6952,10 +6983,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6966,7 +6997,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -6978,16 +7009,18 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7035,19 +7068,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7056,29 +7089,29 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7090,17 +7123,15 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7149,19 +7180,19 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7173,19 +7204,19 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7198,26 +7229,24 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7265,7 +7294,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7289,48 +7318,50 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7355,13 +7386,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7379,19 +7410,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7403,15 +7434,15 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7422,7 +7453,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7434,17 +7465,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>251</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7469,13 +7500,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7493,13 +7524,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7517,6 +7548,120 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CoverageEligibilityRequest.xlsx
+++ b/StructureDefinition-profile-CoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="374">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0572523-06:00</t>
+    <t>2026-02-17T14:42:26.7784609-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>Information code for an event with a corresponding date or period.</t>
   </si>
   <si>
-    <t>Element `CoverageEligibilityRequest.event` is will have a context of CoverageEligibilityRequest based on following the parent source element upwards and mapping to `CoverageEligibilityRequest`.</t>
+    <t>Element `CoverageEligibilityRequest.event` has a context of CoverageEligibilityRequest based on following the parent source element upwards and mapping to `CoverageEligibilityRequest`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -785,13 +785,23 @@
     <t>CoverageEligibilityRequest.supportingInfo.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.supportingInfo.extension:supportingInfo</t>
+  </si>
+  <si>
+    <t>supportingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.supportingInfo|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CoverageEligibilityRequest.supportingInfo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityRequest.supportingInfo` has is mapped to FHIR R4 element `CoverageEligibilityRequest.supportingInfo`, but has no comparisons.</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest.supportingInfo.modifierExtension</t>
@@ -883,6 +893,22 @@
     <t>CoverageEligibilityRequest.insurance.extension</t>
   </si>
   <si>
+    <t>CoverageEligibilityRequest.insurance.extension:insurance</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.insurance|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CoverageEligibilityRequest.insurance from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityRequest.insurance` has is mapped to FHIR R4 element `CoverageEligibilityRequest.insurance`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>CoverageEligibilityRequest.insurance.modifierExtension</t>
   </si>
   <si>
@@ -947,6 +973,22 @@
     <t>CoverageEligibilityRequest.item.extension</t>
   </si>
   <si>
+    <t>CoverageEligibilityRequest.item.extension:item</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.item|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CoverageEligibilityRequest.item from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CoverageEligibilityRequest.item` has is mapped to FHIR R4 element `CoverageEligibilityRequest.item`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>CoverageEligibilityRequest.item.modifierExtension</t>
   </si>
   <si>
@@ -1092,6 +1134,12 @@
   </si>
   <si>
     <t>CoverageEligibilityRequest.item.diagnosis.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest.item.diagnosis.modifierExtension</t>
@@ -1435,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1444,9 +1492,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.66796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.25" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1454,7 +1502,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4240,7 +4288,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4262,14 +4310,12 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4306,19 +4352,17 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4342,19 +4386,21 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4367,26 +4413,24 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4434,7 +4478,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4443,7 +4487,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4458,48 +4502,50 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4548,19 +4594,19 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4572,15 +4618,15 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4603,19 +4649,17 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4664,7 +4708,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -4693,10 +4737,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4704,7 +4748,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
@@ -4719,17 +4763,19 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4778,10 +4824,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -4807,10 +4853,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4821,7 +4867,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4833,19 +4879,17 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4894,13 +4938,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -4923,10 +4967,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4937,7 +4981,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4949,16 +4993,20 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5006,19 +5054,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5030,26 +5078,26 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5061,17 +5109,15 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5120,19 +5166,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5149,14 +5195,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5169,26 +5215,22 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5224,19 +5266,17 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5260,17 +5300,19 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5279,7 +5321,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5291,20 +5333,18 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5352,19 +5392,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5381,43 +5421,45 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>288</v>
+        <v>151</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5466,19 +5508,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5490,15 +5532,15 @@
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5521,17 +5563,19 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5580,7 +5624,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5609,10 +5653,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5620,10 +5664,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5635,7 +5679,7 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>294</v>
@@ -5694,13 +5738,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5752,13 +5796,15 @@
         <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5806,7 +5852,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5818,7 +5864,7 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -5830,19 +5876,19 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5861,18 +5907,18 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5920,7 +5966,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5932,7 +5978,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -5944,51 +5990,47 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6036,19 +6078,19 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6060,15 +6102,15 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6091,18 +6133,16 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6138,19 +6178,17 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6162,7 +6200,7 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6179,12 +6217,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6193,7 +6233,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6205,20 +6245,18 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6242,13 +6280,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6266,19 +6304,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6295,45 +6333,45 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6358,13 +6396,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6382,19 +6420,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6406,15 +6444,15 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6437,19 +6475,17 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6474,13 +6510,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6498,7 +6534,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6527,10 +6563,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6553,17 +6589,19 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6588,13 +6626,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6612,7 +6650,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6627,10 +6665,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6641,10 +6679,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6667,17 +6705,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>330</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6702,13 +6742,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -6726,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6755,10 +6795,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6769,7 +6809,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6781,17 +6821,19 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6816,13 +6858,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6840,13 +6882,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -6895,17 +6937,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>340</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6969,10 +7011,10 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6983,10 +7025,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6997,7 +7039,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7009,17 +7051,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7068,13 +7110,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7089,7 +7131,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7097,10 +7139,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7123,16 +7165,18 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7180,7 +7224,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7192,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7204,26 +7248,26 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7235,18 +7279,18 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7294,19 +7338,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>249</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7318,19 +7362,19 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7343,25 +7387,23 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7410,7 +7452,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7422,7 +7464,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7431,18 +7473,18 @@
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7465,18 +7507,16 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7500,13 +7540,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7524,7 +7564,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7536,7 +7576,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7548,19 +7588,19 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7579,18 +7619,18 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7638,7 +7678,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7650,18 +7690,362 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CoverageEligibilityRequest.xlsx
+++ b/StructureDefinition-profile-CoverageEligibilityRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7784609-06:00</t>
+    <t>2026-02-20T11:59:20.7736653-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CoverageEligibilityRequest|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CoverageEligibilityRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.event|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.event}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.supportingInfo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.supportingInfo}
 </t>
   </si>
   <si>
@@ -899,7 +899,7 @@
     <t>insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.insurance|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.insurance}
 </t>
   </si>
   <si>
@@ -979,7 +979,7 @@
     <t>item</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.item|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.item}
 </t>
   </si>
   <si>
@@ -1502,7 +1502,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-CoverageEligibilityRequest.xlsx
+++ b/StructureDefinition-profile-CoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7736653-06:00</t>
+    <t>2026-02-21T13:36:54.1818777-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CoverageEligibilityRequest</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CoverageEligibilityRequest|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.event}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.event|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -785,23 +785,13 @@
     <t>CoverageEligibilityRequest.supportingInfo.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.supportingInfo.extension:supportingInfo</t>
-  </si>
-  <si>
-    <t>supportingInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.supportingInfo}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CoverageEligibilityRequest.supportingInfo from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CoverageEligibilityRequest.supportingInfo` has is mapped to FHIR R4 element `CoverageEligibilityRequest.supportingInfo`, but has no comparisons.</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest.supportingInfo.modifierExtension</t>
@@ -893,22 +883,6 @@
     <t>CoverageEligibilityRequest.insurance.extension</t>
   </si>
   <si>
-    <t>CoverageEligibilityRequest.insurance.extension:insurance</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.insurance}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CoverageEligibilityRequest.insurance from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CoverageEligibilityRequest.insurance` has is mapped to FHIR R4 element `CoverageEligibilityRequest.insurance`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>CoverageEligibilityRequest.insurance.modifierExtension</t>
   </si>
   <si>
@@ -973,22 +947,6 @@
     <t>CoverageEligibilityRequest.item.extension</t>
   </si>
   <si>
-    <t>CoverageEligibilityRequest.item.extension:item</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CoverageEligibilityRequest.item}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CoverageEligibilityRequest.item from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CoverageEligibilityRequest.item` has is mapped to FHIR R4 element `CoverageEligibilityRequest.item`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>CoverageEligibilityRequest.item.modifierExtension</t>
   </si>
   <si>
@@ -1134,12 +1092,6 @@
   </si>
   <si>
     <t>CoverageEligibilityRequest.item.diagnosis.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest.item.diagnosis.modifierExtension</t>
@@ -1483,7 +1435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1492,9 +1444,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1502,7 +1454,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4288,7 +4240,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4310,12 +4262,14 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4352,17 +4306,19 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4386,21 +4342,19 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4413,24 +4367,26 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4478,7 +4434,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4487,7 +4443,7 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -4502,50 +4458,48 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4594,19 +4548,19 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4618,15 +4572,15 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4649,17 +4603,19 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4708,7 +4664,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -4737,10 +4693,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4748,7 +4704,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
@@ -4763,19 +4719,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4824,10 +4778,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -4853,10 +4807,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4867,7 +4821,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4879,17 +4833,19 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4938,13 +4894,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -4967,10 +4923,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4981,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4993,20 +4949,16 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5054,19 +5006,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5078,26 +5030,26 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5109,15 +5061,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5166,19 +5120,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5195,14 +5149,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5215,22 +5169,26 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5266,17 +5224,19 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5300,19 +5260,17 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5321,7 +5279,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5333,18 +5291,20 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5392,19 +5352,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5421,45 +5381,43 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5508,19 +5466,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5532,15 +5490,15 @@
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5563,19 +5521,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5624,7 +5580,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5653,10 +5609,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5664,10 +5620,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5679,7 +5635,7 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>294</v>
@@ -5738,13 +5694,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5796,15 +5752,13 @@
         <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5852,7 +5806,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5864,7 +5818,7 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -5876,19 +5830,19 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5907,18 +5861,18 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5966,7 +5920,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5978,7 +5932,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -5990,47 +5944,51 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6078,19 +6036,19 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6102,15 +6060,15 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6133,16 +6091,18 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6178,17 +6138,19 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6200,7 +6162,7 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6217,14 +6179,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6233,7 +6193,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6245,18 +6205,20 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6280,13 +6242,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6304,19 +6266,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6333,45 +6295,45 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6396,13 +6358,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6420,19 +6382,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6444,15 +6406,15 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6475,17 +6437,19 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6510,13 +6474,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6498,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6563,10 +6527,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6589,19 +6553,17 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6626,13 +6588,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6650,7 +6612,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6665,10 +6627,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6679,10 +6641,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6705,19 +6667,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6742,31 +6702,31 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6795,10 +6755,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6809,7 +6769,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6821,19 +6781,17 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6858,13 +6816,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6882,13 +6840,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -6937,17 +6895,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>208</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>340</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7011,10 +6969,10 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7025,10 +6983,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7039,7 +6997,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7051,17 +7009,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7110,13 +7068,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7131,7 +7089,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7139,10 +7097,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7165,18 +7123,16 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>242</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7224,7 +7180,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>347</v>
+        <v>244</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7236,7 +7192,7 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7248,26 +7204,26 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7279,18 +7235,18 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7338,19 +7294,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7362,19 +7318,19 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7387,23 +7343,25 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>252</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>341</v>
+        <v>151</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7410,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7464,7 +7422,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7473,18 +7431,18 @@
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7507,16 +7465,18 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7540,13 +7500,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7564,7 +7524,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7576,7 +7536,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7588,19 +7548,19 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7619,18 +7579,18 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7678,7 +7638,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7690,7 +7650,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7702,350 +7662,6 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
         <v>77</v>
       </c>
     </row>
